--- a/MatrizExcel.xlsx
+++ b/MatrizExcel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Compiladores-2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAB4FB1-97AD-4048-8916-F4919EE7D26E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,40 +380,43 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S19">
-  <autoFilter ref="A1:S19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:S19">
+  <autoFilter ref="A1:S19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Estados" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="dig" dataDxfId="17"/>
-    <tableColumn id="3" name="E/e" dataDxfId="16"/>
-    <tableColumn id="4" name="letra" dataDxfId="15"/>
-    <tableColumn id="5" name="&lt;" dataDxfId="14"/>
-    <tableColumn id="6" name="&gt;" dataDxfId="13"/>
-    <tableColumn id="7" name="+" dataDxfId="12"/>
-    <tableColumn id="8" name="-" dataDxfId="11"/>
-    <tableColumn id="9" name="=" dataDxfId="10"/>
-    <tableColumn id="10" name="/" dataDxfId="9"/>
-    <tableColumn id="11" name="*" dataDxfId="8"/>
-    <tableColumn id="12" name="." dataDxfId="7"/>
-    <tableColumn id="19" name="," dataDxfId="6"/>
-    <tableColumn id="13" name=";" dataDxfId="5"/>
-    <tableColumn id="14" name=":" dataDxfId="4"/>
-    <tableColumn id="15" name="(" dataDxfId="3"/>
-    <tableColumn id="16" name=")" dataDxfId="2"/>
-    <tableColumn id="17" name="&quot;" dataDxfId="1"/>
-    <tableColumn id="18" name="ESPACIO" totalsRowFunction="sum" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Estados" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="dig" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="E/e" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="letra" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="&lt;" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="&gt;" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="+" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="-" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="=" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="/" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="*" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="." dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="," dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name=";" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name=":" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="(" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name=")" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="&quot;" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ESPACIO" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,9 +491,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,6 +543,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,14 +735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="S19" sqref="A1:S19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
@@ -784,28 +827,28 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
+        <v>305</v>
+      </c>
+      <c r="H2" s="1">
+        <v>306</v>
+      </c>
+      <c r="I2" s="1">
         <v>309</v>
-      </c>
-      <c r="H2" s="1">
-        <v>310</v>
-      </c>
-      <c r="I2" s="1">
-        <v>308</v>
       </c>
       <c r="J2" s="1">
         <v>14</v>
       </c>
       <c r="K2" s="1">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L2" s="1">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M2" s="1">
         <v>307</v>
       </c>
       <c r="N2" s="1">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O2" s="1">
         <v>13</v>
@@ -1557,7 +1600,7 @@
         <v>207</v>
       </c>
       <c r="I15" s="1">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J15" s="1">
         <v>207</v>
@@ -1595,58 +1638,58 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="E16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="F16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="G16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="H16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="I16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="J16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="K16" s="1">
         <v>15</v>
       </c>
       <c r="L16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="M16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="N16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="O16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="P16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="R16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="S16" s="1">
-        <v>312</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1737,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="1">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="K18" s="1">
         <v>15</v>
@@ -1820,7 +1863,7 @@
         <v>17</v>
       </c>
       <c r="R19" s="2">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="S19" s="2">
         <v>17</v>
@@ -1876,24 +1919,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
